--- a/deployment/v3/mosip/kernel/masterdata/xlsx/identity_schema.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/xlsx/identity_schema.xlsx
@@ -61,7 +61,430 @@
     <t xml:space="preserve">Mosip Sample identity</t>
   </si>
   <si>
-    <t xml:space="preserve">{"$schema":"http:\/\/json-schema.org\/draft-07\/schema#","description":"MOSIP Sample identity","additionalProperties":false,"title":"MOSIP identity","type":"object","definitions":{"simpleType":{"uniqueItems":true,"additionalItems":false,"type":"array","items":{"additionalProperties":false,"type":"object","required":["language","value"],"properties":{"language":{"type":"string"},"value":{"type":"string"}}}},"documentType":{"additionalProperties":false,"type":"object","properties":{"format":{"type":"string"},"type":{"type":"string"},"value":{"type":"string"}}},"biometricsType":{"additionalProperties":false,"type":"object","properties":{"format":{"type":"string"},"version":{"type":"number","minimum":0},"value":{"type":"string"}}}},"properties":{"identity":{"additionalProperties":false,"type":"object","required":["IDSchemaVersion","fullName","dateOfBirth","gender","addressLine1","addressLine2","addressLine3","region","province","city","zone","postalCode","phone","email","proofOfIdentity","individualBiometrics"],"properties":{"proofOfAddress":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"gender":{"bioAttributes":[],"fieldCategory":"pvt","format":"","fieldType":"default","$ref":"#\/definitions\/simpleType"},"city":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"postalCode":{"bioAttributes":[],"validators":[{"validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"proofOfException-1":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"referenceIdentityNumber":{"bioAttributes":[],"validators":[{"validator":"^([0-9]{10,30})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"kyc","type":"string","fieldType":"default"},"individualBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/biometricsType"},"province":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"zone":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"proofOfDateOfBirth":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"addressLine1":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"addressLine2":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"residenceStatus":{"bioAttributes":[],"fieldCategory":"kyc","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"addressLine3":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"email":{"bioAttributes":[],"validators":[{"validator":"^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"parentOrGuardianRID":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","type":"string","fieldType":"default"},"parentOrGuardianBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/biometricsType"},"fullName":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"dateOfBirth":{"bioAttributes":[],"validators":[{"validator":"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])\/([0][1-9]|1[0-2])\/([0][1-9]|[1-2][0-9]|3[01])$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"individualAuthBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/biometricsType"},"parentOrGuardianUIN":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","type":"string","fieldType":"default"},"proofOfIdentity":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"IDSchemaVersion":{"bioAttributes":[],"fieldCategory":"none","format":"none","type":"number","fieldType":"default","minimum":0},"proofOfException":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"phone":{"bioAttributes":[],"validators":[{"validator":"^[+]*([0-9]{1})([0-9]{9})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"parentOrGuardianName":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"proofOfRelationship":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"UIN":{"bioAttributes":[],"fieldCategory":"none","format":"none","type":"string","fieldType":"default"},"region":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"}}}}}</t>
+    <t xml:space="preserve">{
+  "$schema": "http://json-schema.org/draft-07/schema#",
+  "description": "MOSIP Sample identity",
+  "additionalProperties": false,
+  "title": "MOSIP identity",
+  "type": "object",
+  "definitions": {
+    "simpleType": {
+      "uniqueItems": true,
+      "additionalItems": false,
+      "type": "array",
+      "items": {
+        "additionalProperties": false,
+        "type": "object",
+        "required": [
+          "language",
+          "value"
+        ],
+        "properties": {
+          "language": {
+            "type": "string"
+          },
+          "value": {
+            "type": "string"
+          }
+        }
+      }
+    },
+    "documentType": {
+      "additionalProperties": false,
+      "type": "object",
+      "properties": {
+        "format": {
+          "type": "string"
+        },
+        "type": {
+          "type": "string"
+        },
+        "value": {
+          "type": "string"
+        },
+        "refNumber": {
+          "type": [
+            "string",
+            "null"
+          ]
+        }
+      }
+    },
+    "biometricsType": {
+      "additionalProperties": false,
+      "type": "object",
+      "properties": {
+        "format": {
+          "type": "string"
+        },
+        "version": {
+          "type": "number",
+          "minimum": 0
+        },
+        "value": {
+          "type": "string"
+        }
+      }
+    }
+  },
+  "properties": {
+    "identity": {
+      "additionalProperties": false,
+      "type": "object",
+      "required": [
+        "IDSchemaVersion",
+        "fullName",
+        "dateOfBirth",
+        "gender",
+        "addressLine1",
+        "addressLine2",
+        "addressLine3",
+        "region",
+        "province",
+        "city",
+        "zone",
+        "postalCode",
+        "phone",
+        "email",
+        "proofOfIdentity",
+        "individualBiometrics"
+      ],
+      "properties": {
+        "proofOfAddress": {
+          "bioAttributes": [],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/documentType"
+        },
+        "gender": {
+          "bioAttributes": [],
+          "fieldCategory": "pvt",
+          "format": "",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "city": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(?=.{0,50}$).*",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "postalCode": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^[(?i)A-Z0-9]{5}$|^NA$",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "proofOfException-1": {
+          "bioAttributes": [],
+          "fieldCategory": "evidence",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/documentType"
+        },
+        "referenceIdentityNumber": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^([0-9]{10,30})$",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "kyc",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "individualBiometrics": {
+          "bioAttributes": [
+            "leftEye",
+            "rightEye",
+            "rightIndex",
+            "rightLittle",
+            "rightRing",
+            "rightMiddle",
+            "leftIndex",
+            "leftLittle",
+            "leftRing",
+            "leftMiddle",
+            "leftThumb",
+            "rightThumb",
+            "face"
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/biometricsType"
+        },
+        "province": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(?=.{0,50}$).*",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "zone": {
+          "bioAttributes": [],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "proofOfDateOfBirth": {
+          "bioAttributes": [],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/documentType"
+        },
+        "addressLine1": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(?=.{0,50}$).*",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "addressLine2": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(?=.{3,50}$).*",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "residenceStatus": {
+          "bioAttributes": [],
+          "fieldCategory": "kyc",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "addressLine3": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(?=.{3,50}$).*",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "email": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "introducerRID": {
+          "bioAttributes": [],
+          "fieldCategory": "evidence",
+          "format": "none",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "introducerBiometrics": {
+          "bioAttributes": [
+            "leftEye",
+            "rightEye",
+            "rightIndex",
+            "rightLittle",
+            "rightRing",
+            "rightMiddle",
+            "leftIndex",
+            "leftLittle",
+            "leftRing",
+            "leftMiddle",
+            "leftThumb",
+            "rightThumb",
+            "face"
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/biometricsType"
+        },
+        "fullName": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(?=.{3,50}$).*",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "dateOfBirth": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])/([0][1-9]|1[0-2])/([0][1-9]|[1-2][0-9]|3[01])$",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "individualAuthBiometrics": {
+          "bioAttributes": [
+            "leftEye",
+            "rightEye",
+            "rightIndex",
+            "rightLittle",
+            "rightRing",
+            "rightMiddle",
+            "leftIndex",
+            "leftLittle",
+            "leftRing",
+            "leftMiddle",
+            "leftThumb",
+            "rightThumb",
+            "face"
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/biometricsType"
+        },
+        "introducerUIN": {
+          "bioAttributes": [],
+          "fieldCategory": "evidence",
+          "format": "none",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "proofOfIdentity": {
+          "bioAttributes": [],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/documentType"
+        },
+        "IDSchemaVersion": {
+          "bioAttributes": [],
+          "fieldCategory": "none",
+          "format": "none",
+          "type": "number",
+          "fieldType": "default",
+          "minimum": 0
+        },
+        "proofOfException": {
+          "bioAttributes": [],
+          "fieldCategory": "evidence",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/documentType"
+        },
+        "phone": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^[+]*([0-9]{1})([0-9]{9})$",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "introducerName": {
+          "bioAttributes": [],
+          "fieldCategory": "evidence",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "proofOfRelationship": {
+          "bioAttributes": [],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/documentType",
+          "refNumber": null
+        },
+        "UIN": {
+          "bioAttributes": [],
+          "fieldCategory": "none",
+          "format": "none",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "region": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(?=.{0,50}$).*",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        }
+      }
+    }
+  }
+}</t>
   </si>
   <si>
     <t xml:space="preserve">PUBLISHED</t>
@@ -84,7 +507,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -113,6 +536,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo-Regular"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +593,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -183,6 +612,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -205,10 +642,10 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.6"/>
@@ -253,7 +690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="3276.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -269,10 +706,10 @@
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
